--- a/WebApp/assets/excel_template/report_sample.xlsx
+++ b/WebApp/assets/excel_template/report_sample.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2901_do\Downloads\work\ZZ\BlazorSSR-Practice\WebApp\assets\excel_temlate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2901_do\Downloads\work\ZZ\BlazorSSR-Practice\WebApp\assets\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D45393D-0016-4E6F-8663-9FD1AA19486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6BA549-88D6-48C0-B8ED-BE65A5B7F112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,53 +31,47 @@
     <rPh sb="0" eb="4">
       <t>コキャクジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>顧客名</t>
     <rPh sb="0" eb="3">
       <t>コキャクメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>住所</t>
     <rPh sb="0" eb="2">
       <t>ジュウショ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -86,6 +80,26 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -164,36 +178,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{32BE08C0-64DF-4A70-BBED-7100C950F11C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,7 +226,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -219,42 +236,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -284,29 +301,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -336,23 +336,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,6 +397,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -422,13 +412,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -493,38 +476,18 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BE091E-C0A9-453F-A842-1F4F681EB6F9}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
@@ -533,44 +496,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.625" style="3"/>
+    <col min="4" max="4" width="45" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -579,7 +544,7 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="77" firstPageNumber="0" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
